--- a/DataSheets/demowebshop.xlsx
+++ b/DataSheets/demowebshop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QTP-Hybrid-Framework\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112BC94-0A3A-4397-B1F8-8211B7C96784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82683509-9523-4813-8C62-E7A76E948551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="89">
   <si>
     <t>Gender</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>BELLANDUR</t>
+  </si>
+  <si>
+    <t>navya1234@gmail.com</t>
+  </si>
+  <si>
+    <t>navya@123</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,6 +417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -696,17 +703,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.36328125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -746,7 +753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -766,7 +773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -796,18 +803,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -818,7 +825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -829,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -840,7 +847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -864,13 +871,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -878,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -886,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -894,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -922,19 +929,19 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="46.36328125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="6" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -963,7 +970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -988,7 +995,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1037,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1056,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1073,20 +1080,20 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.5546875" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" customWidth="1"/>
+    <col min="12" max="12" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>60</v>
       </c>
@@ -1125,7 +1132,7 @@
       </c>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>74</v>
       </c>
@@ -1164,7 +1171,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1210,7 @@
       </c>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>79</v>
       </c>
@@ -1242,7 +1249,7 @@
       </c>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
@@ -1281,7 +1288,7 @@
       </c>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1305,30 +1312,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.90625" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" customWidth="1"/>
+    <col min="17" max="17" width="18.453125" customWidth="1"/>
+    <col min="18" max="18" width="44.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1386,12 +1393,12 @@
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
@@ -1440,7 +1447,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1499,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1547,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1562,7 +1569,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1584,7 +1591,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1606,7 +1613,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1628,7 +1635,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1650,7 +1657,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1672,12 +1679,16 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="Q13" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{268305E7-20AE-4F2C-A1FC-4CCC1D7448F5}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{09560CC1-11A9-4C90-9E47-E86310681562}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1689,17 +1700,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="41.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1733,7 +1744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
